--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498902.6127354263</v>
+        <v>431889.0009836451</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4321361.842589801</v>
+        <v>3840854.495975447</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10435498.72183876</v>
+        <v>10457196.99249322</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548339.602247631</v>
+        <v>8566164.688334364</v>
       </c>
     </row>
     <row r="11">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>53.45201205786118</v>
+        <v>58.64124924790686</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,49 +837,49 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>55.77372499889864</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>108.1823083682227</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>9.17272321772834</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.89714131395593</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>56.91690033700354</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>11.21959608876256</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>164.488851211862</v>
+        <v>323.0898358506004</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1469,7 +1469,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>116.902239282742</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.79825004194911</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
@@ -1584,19 +1584,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>328.7871882650733</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>153.4210721125519</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>165.0140383262353</v>
+        <v>137.7488816755003</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>336.9075144232434</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>256.2003498535541</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>79.54865892385534</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>83.97838150887655</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>30.32609604477764</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -2134,22 +2134,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.1177759454069</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>160.0280413221211</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>131.1086717162285</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>328.7120663263501</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>60.511722834845</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.8120836014182</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>34.46019483852456</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>20.86956528937749</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>295.2943153190058</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>45.73305741335791</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>22.79825004194893</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>209.4145474455043</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>216.0954061087065</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>31.80798815127222</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.3729047207587</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>45.15850023617794</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>213.5117063828019</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3340391620674</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>121.2753681519636</v>
       </c>
       <c r="U34" t="n">
-        <v>116.902239282742</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>75.87044749382798</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>253.0923760473465</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>156.2252573195508</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>49.94675160484181</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>44.40470290120481</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>200.9838803217804</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>56.08889633518827</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>70.75961005690043</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>282.3621888050847</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>85.22101715241963</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>45.4458084395873</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>133.2229739853305</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>18.5800756796661</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>61.44251898056581</v>
       </c>
       <c r="D44" t="n">
-        <v>344.4428468029052</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.4880739292253</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>63.41107167461783</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0404798209637</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>19.12450171074273</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>176.9428069721036</v>
       </c>
       <c r="T46" t="n">
-        <v>146.3234829725634</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2256951695733</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C3" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D3" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E3" t="n">
-        <v>277.6959718698396</v>
+        <v>225.0492861822236</v>
       </c>
       <c r="F3" t="n">
-        <v>277.6959718698396</v>
+        <v>78.51472820910854</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y3" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7389791981386</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7389791981386</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7389791981386</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7389791981386</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>86.70591620708569</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>86.70591620708569</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>580.7720421891916</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>580.7720421891916</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7389791981386</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.6120905252627</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>434.6120905252627</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>434.6120905252627</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>275.3746355198072</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>128.8400775466921</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>388.3029667412324</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>630.4200717787633</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>872.5371768162943</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>602.8274275453307</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>562.1268284949833</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>355.8183720817682</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>355.8183720817682</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>206.883962420517</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>394.933760794076</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>355.8183720817682</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>171.1760021284691</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.841046679629</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="C11" t="n">
-        <v>1484.841046679629</v>
+        <v>1466.529007709522</v>
       </c>
       <c r="D11" t="n">
-        <v>1484.841046679629</v>
+        <v>1108.263309102772</v>
       </c>
       <c r="E11" t="n">
-        <v>1318.690691920173</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="F11" t="n">
-        <v>907.7047871305651</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G11" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H11" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L11" t="n">
-        <v>1197.621189819594</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M11" t="n">
-        <v>1384.320602645002</v>
+        <v>896.0109951791954</v>
       </c>
       <c r="N11" t="n">
-        <v>1578.654815536984</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O11" t="n">
         <v>1960.554969866447</v>
@@ -5071,22 +5071,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.045976980643</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.045976980643</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X11" t="n">
-        <v>2261.580218719563</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.440886743751</v>
+        <v>1835.491524649934</v>
       </c>
     </row>
     <row r="12">
@@ -5105,16 +5105,16 @@
         <v>642.7351650238405</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I12" t="n">
         <v>52.70091953961285</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="D13" t="n">
         <v>52.70091953961285</v>
@@ -5223,28 +5223,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>1029.607065603049</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>822.1667808554549</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T13" t="n">
-        <v>596.5375841678199</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U13" t="n">
-        <v>307.3854077454997</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V13" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W13" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961285</v>
+        <v>391.5765686657106</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1908.811563449448</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C14" t="n">
-        <v>1539.849046509037</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D14" t="n">
-        <v>1181.583347902286</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E14" t="n">
-        <v>795.795095304042</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F14" t="n">
-        <v>384.8091905144344</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G14" t="n">
         <v>52.70091953961285</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V14" t="n">
-        <v>2635.045976980643</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W14" t="n">
-        <v>2282.277321710528</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X14" t="n">
-        <v>1908.811563449448</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y14" t="n">
-        <v>1908.811563449448</v>
+        <v>1266.562858691037</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L15" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M15" t="n">
-        <v>1440.248516892441</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C16" t="n">
         <v>52.70091953961285</v>
@@ -5469,19 +5469,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V16" t="n">
-        <v>508.7989363707505</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W16" t="n">
-        <v>219.3817663337899</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X16" t="n">
-        <v>52.70091953961285</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.70091953961285</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1835.491524649934</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="C17" t="n">
-        <v>1466.529007709522</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="D17" t="n">
-        <v>1108.263309102772</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="E17" t="n">
-        <v>722.4750565045276</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F17" t="n">
-        <v>311.4891517149201</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
@@ -5548,19 +5548,19 @@
         <v>2420.246115248354</v>
       </c>
       <c r="U17" t="n">
-        <v>2166.554411993505</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V17" t="n">
-        <v>1835.491524649934</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W17" t="n">
-        <v>1835.491524649934</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="X17" t="n">
-        <v>1835.491524649934</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="Y17" t="n">
-        <v>1835.491524649934</v>
+        <v>1699.043895928971</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238405</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023184</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L18" t="n">
         <v>1005.150115568437</v>
       </c>
       <c r="M18" t="n">
-        <v>1184.647451923042</v>
+        <v>1184.647451923041</v>
       </c>
       <c r="N18" t="n">
-        <v>1836.821331225751</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q18" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R18" t="n">
         <v>2613.934077382829</v>
@@ -5627,19 +5627,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V18" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>283.1697396831156</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C19" t="n">
-        <v>283.1697396831156</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D19" t="n">
-        <v>133.0531002707799</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E19" t="n">
         <v>52.70091953961285</v>
@@ -5700,25 +5700,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T19" t="n">
-        <v>827.0064043113226</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U19" t="n">
-        <v>537.8542278890025</v>
+        <v>845.195316251363</v>
       </c>
       <c r="V19" t="n">
-        <v>283.1697396831156</v>
+        <v>760.3686682625988</v>
       </c>
       <c r="W19" t="n">
-        <v>283.1697396831156</v>
+        <v>760.3686682625988</v>
       </c>
       <c r="X19" t="n">
-        <v>283.1697396831156</v>
+        <v>532.3791173645815</v>
       </c>
       <c r="Y19" t="n">
-        <v>283.1697396831156</v>
+        <v>532.3791173645815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>848.882703973743</v>
+        <v>1349.323112167423</v>
       </c>
       <c r="C20" t="n">
-        <v>848.882703973743</v>
+        <v>1349.323112167423</v>
       </c>
       <c r="D20" t="n">
-        <v>490.6170053669925</v>
+        <v>1349.323112167423</v>
       </c>
       <c r="E20" t="n">
-        <v>490.6170053669925</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F20" t="n">
-        <v>490.6170053669925</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G20" t="n">
         <v>490.6170053669925</v>
@@ -5758,10 +5758,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M20" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N20" t="n">
         <v>1413.39376509937</v>
@@ -5782,22 +5782,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U20" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V20" t="n">
-        <v>1679.276487146762</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W20" t="n">
-        <v>1326.507831876648</v>
+        <v>2126.062284207356</v>
       </c>
       <c r="X20" t="n">
-        <v>953.0420736155681</v>
+        <v>2126.062284207356</v>
       </c>
       <c r="Y20" t="n">
-        <v>848.882703973743</v>
+        <v>1735.922952231545</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K21" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1440.248516892441</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N21" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q21" t="n">
         <v>2635.045976980643</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.0688901405259</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C22" t="n">
-        <v>371.4244039565652</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D22" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E22" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F22" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
         <v>52.70091953961285</v>
@@ -5934,28 +5934,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>714.7173549707657</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T22" t="n">
-        <v>714.7173549707657</v>
+        <v>712.7623145177988</v>
       </c>
       <c r="U22" t="n">
-        <v>714.7173549707657</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="V22" t="n">
-        <v>714.7173549707657</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="W22" t="n">
-        <v>714.7173549707657</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="X22" t="n">
-        <v>714.7173549707657</v>
+        <v>423.6101380954786</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.7173549707657</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>739.8865517075151</v>
+        <v>1187.609344130066</v>
       </c>
       <c r="C23" t="n">
-        <v>370.9240347671034</v>
+        <v>1187.609344130066</v>
       </c>
       <c r="D23" t="n">
-        <v>370.9240347671034</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E23" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F23" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G23" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H23" t="n">
         <v>52.70091953961285</v>
@@ -5995,10 +5995,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N23" t="n">
         <v>1413.39376509937</v>
@@ -6022,19 +6022,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U23" t="n">
-        <v>2573.923024622213</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V23" t="n">
-        <v>2242.860137278642</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W23" t="n">
-        <v>1890.091482008528</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X23" t="n">
-        <v>1516.625723747449</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y23" t="n">
-        <v>1126.486391771637</v>
+        <v>1187.609344130066</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D24" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>52.70091953961264</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K24" t="n">
-        <v>382.1293238454225</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L24" t="n">
-        <v>799.703167425336</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M24" t="n">
-        <v>1440.248516892441</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N24" t="n">
-        <v>1638.905258545105</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.341267297828</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,7 +6101,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
@@ -6113,7 +6113,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.6371024675198</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C25" t="n">
-        <v>52.70091953961285</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D25" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E25" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F25" t="n">
         <v>52.70091953961285</v>
@@ -6171,28 +6171,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R25" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S25" t="n">
-        <v>845.195316251363</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T25" t="n">
-        <v>619.566119563728</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U25" t="n">
-        <v>619.566119563728</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="V25" t="n">
-        <v>364.8816313578411</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="W25" t="n">
-        <v>364.8816313578411</v>
+        <v>887.349362103689</v>
       </c>
       <c r="X25" t="n">
-        <v>364.8816313578411</v>
+        <v>887.349362103689</v>
       </c>
       <c r="Y25" t="n">
-        <v>364.8816313578411</v>
+        <v>666.5567829601589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>779.9291350867751</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="C26" t="n">
-        <v>410.9666181463634</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D26" t="n">
-        <v>52.70091953961285</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E26" t="n">
-        <v>52.70091953961285</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F26" t="n">
         <v>52.70091953961285</v>
@@ -6226,25 +6226,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K26" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>709.3115823537878</v>
+        <v>976.3788636642336</v>
       </c>
       <c r="M26" t="n">
-        <v>1341.029393337099</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N26" t="n">
-        <v>1968.337061396946</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O26" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P26" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6256,22 +6256,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2613.965608001473</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2613.965608001473</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V26" t="n">
-        <v>2282.902720657903</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W26" t="n">
-        <v>1930.134065387788</v>
+        <v>2336.768890799829</v>
       </c>
       <c r="X26" t="n">
-        <v>1556.668307126709</v>
+        <v>1963.303132538749</v>
       </c>
       <c r="Y26" t="n">
-        <v>1166.528975150897</v>
+        <v>1963.303132538749</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K27" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L27" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M27" t="n">
-        <v>1265.215628536193</v>
+        <v>1547.550142987488</v>
       </c>
       <c r="N27" t="n">
-        <v>1917.389507838902</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O27" t="n">
-        <v>2466.825516591625</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980642</v>
@@ -6411,25 +6411,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>619.566119563728</v>
+        <v>1006.440593510717</v>
       </c>
       <c r="U28" t="n">
-        <v>330.4139431414077</v>
+        <v>1006.440593510717</v>
       </c>
       <c r="V28" t="n">
-        <v>75.72945493552086</v>
+        <v>751.7561053048305</v>
       </c>
       <c r="W28" t="n">
-        <v>52.70091953961285</v>
+        <v>462.3389352678699</v>
       </c>
       <c r="X28" t="n">
-        <v>52.70091953961285</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.70091953961285</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1266.562858691037</v>
+        <v>1114.977985972098</v>
       </c>
       <c r="C29" t="n">
-        <v>1266.562858691037</v>
+        <v>1114.977985972098</v>
       </c>
       <c r="D29" t="n">
-        <v>1266.562858691037</v>
+        <v>756.7122873653476</v>
       </c>
       <c r="E29" t="n">
-        <v>880.774606092793</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="F29" t="n">
-        <v>469.7887013031854</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K29" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L29" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M29" t="n">
-        <v>1341.029393337099</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N29" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O29" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P29" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U29" t="n">
-        <v>2416.767788992051</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V29" t="n">
-        <v>2416.767788992051</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W29" t="n">
-        <v>2416.767788992051</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X29" t="n">
-        <v>2043.302030730971</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y29" t="n">
-        <v>1653.162698755159</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K30" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L30" t="n">
-        <v>886.4908637115414</v>
+        <v>638.0181737180121</v>
       </c>
       <c r="M30" t="n">
-        <v>1440.248516892442</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N30" t="n">
-        <v>1638.905258545106</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>794.8771233504416</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C31" t="n">
-        <v>794.8771233504416</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D31" t="n">
-        <v>794.8771233504416</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E31" t="n">
-        <v>646.9640297680485</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F31" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G31" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6648,25 +6648,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>1020.506320038077</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>794.8771233504416</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>794.8771233504416</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V31" t="n">
-        <v>794.8771233504416</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W31" t="n">
-        <v>794.8771233504416</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="X31" t="n">
-        <v>794.8771233504416</v>
+        <v>599.0168534133053</v>
       </c>
       <c r="Y31" t="n">
-        <v>794.8771233504416</v>
+        <v>553.4022067100952</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>421.6634364800246</v>
+        <v>1482.231248976696</v>
       </c>
       <c r="C32" t="n">
-        <v>52.70091953961286</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D32" t="n">
-        <v>52.70091953961286</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E32" t="n">
-        <v>52.70091953961286</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F32" t="n">
-        <v>52.70091953961286</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
@@ -6706,16 +6706,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M32" t="n">
-        <v>1384.320602645002</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N32" t="n">
-        <v>1578.654815536984</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6730,22 +6730,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.339374490333</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V32" t="n">
-        <v>1679.276487146763</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W32" t="n">
-        <v>1571.868366781038</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="X32" t="n">
-        <v>1198.402608519958</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="Y32" t="n">
-        <v>808.2632765441464</v>
+        <v>1482.231248976696</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D33" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J33" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K33" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L33" t="n">
-        <v>346.1860297752926</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M33" t="n">
-        <v>986.7313792423972</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N33" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.70091953961286</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="C34" t="n">
-        <v>52.70091953961286</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="D34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6882,28 +6882,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S34" t="n">
-        <v>845.195316251363</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T34" t="n">
-        <v>619.566119563728</v>
+        <v>592.2169831000954</v>
       </c>
       <c r="U34" t="n">
-        <v>501.4830495811603</v>
+        <v>592.2169831000954</v>
       </c>
       <c r="V34" t="n">
-        <v>501.4830495811603</v>
+        <v>592.2169831000954</v>
       </c>
       <c r="W34" t="n">
-        <v>501.4830495811603</v>
+        <v>592.2169831000954</v>
       </c>
       <c r="X34" t="n">
-        <v>273.4934986831429</v>
+        <v>592.2169831000954</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.70091953961286</v>
+        <v>371.4244039565652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1522.211723385327</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="C35" t="n">
-        <v>1522.211723385327</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="D35" t="n">
-        <v>1522.211723385327</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="E35" t="n">
-        <v>1136.423470787082</v>
+        <v>567.2538210173238</v>
       </c>
       <c r="F35" t="n">
-        <v>725.4375659974748</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G35" t="n">
-        <v>308.3497842339023</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I35" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.215540799241</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M35" t="n">
-        <v>1661.933351782553</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N35" t="n">
-        <v>1856.267564674535</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O35" t="n">
-        <v>2403.428769441613</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P35" t="n">
-        <v>2514.163094691139</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U35" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V35" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W35" t="n">
-        <v>2282.277321710528</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.811563449448</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y35" t="n">
-        <v>1908.811563449448</v>
+        <v>953.0420736155681</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D36" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E36" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F36" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J36" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K36" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L36" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M36" t="n">
-        <v>1527.036213178646</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.692954831311</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q36" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R36" t="n">
         <v>2613.934077382829</v>
@@ -7049,19 +7049,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U36" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V36" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y36" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>508.5339427561102</v>
+        <v>422.2050061271705</v>
       </c>
       <c r="C37" t="n">
-        <v>350.7306525343417</v>
+        <v>253.2688231992636</v>
       </c>
       <c r="D37" t="n">
-        <v>200.614013122006</v>
+        <v>103.1521837869278</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961285</v>
+        <v>103.1521837869278</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>103.1521837869278</v>
       </c>
       <c r="G37" t="n">
         <v>52.70091953961285</v>
@@ -7131,16 +7131,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V37" t="n">
-        <v>797.9511127930708</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W37" t="n">
-        <v>508.5339427561102</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X37" t="n">
-        <v>508.5339427561102</v>
+        <v>824.6460501009403</v>
       </c>
       <c r="Y37" t="n">
-        <v>508.5339427561102</v>
+        <v>603.8534709574102</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>541.3564070799138</v>
+        <v>1635.525375631449</v>
       </c>
       <c r="C38" t="n">
-        <v>172.393890139502</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D38" t="n">
-        <v>172.393890139502</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E38" t="n">
-        <v>172.393890139502</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>172.393890139502</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K38" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>1030.215540799241</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M38" t="n">
-        <v>1216.914953624649</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N38" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O38" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2375.392879994612</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V38" t="n">
-        <v>2044.329992651041</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W38" t="n">
-        <v>1691.561337380927</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="X38" t="n">
-        <v>1318.095579119847</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="Y38" t="n">
-        <v>927.9562471440356</v>
+        <v>2022.125215695571</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7244,13 +7244,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H39" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
         <v>171.3601713965085</v>
@@ -7262,13 +7262,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M39" t="n">
-        <v>1232.272002033951</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7277,7 +7277,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961286</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961286</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7356,28 +7356,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R40" t="n">
-        <v>995.9801501553331</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>788.5398654077386</v>
+        <v>981.161247406129</v>
       </c>
       <c r="T40" t="n">
-        <v>562.9106687201036</v>
+        <v>981.161247406129</v>
       </c>
       <c r="U40" t="n">
-        <v>562.9106687201036</v>
+        <v>981.161247406129</v>
       </c>
       <c r="V40" t="n">
-        <v>562.9106687201036</v>
+        <v>981.161247406129</v>
       </c>
       <c r="W40" t="n">
-        <v>273.4934986831429</v>
+        <v>981.161247406129</v>
       </c>
       <c r="X40" t="n">
-        <v>273.4934986831429</v>
+        <v>753.1716965081116</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961286</v>
+        <v>532.3791173645815</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>463.6868243292204</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C41" t="n">
-        <v>463.6868243292204</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D41" t="n">
-        <v>463.6868243292204</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E41" t="n">
-        <v>463.6868243292204</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F41" t="n">
-        <v>52.70091953961286</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J41" t="n">
         <v>241.3408185533492</v>
@@ -7420,13 +7420,13 @@
         <v>784.1365874146478</v>
       </c>
       <c r="M41" t="n">
-        <v>1415.85439839796</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N41" t="n">
-        <v>1610.188611289942</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P41" t="n">
         <v>2389.870016205742</v>
@@ -7441,22 +7441,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.339374490333</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V41" t="n">
-        <v>1679.276487146763</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W41" t="n">
-        <v>1326.507831876648</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="X41" t="n">
-        <v>1240.425996369154</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="Y41" t="n">
-        <v>850.2866643933422</v>
+        <v>1482.231248976696</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>966.1226039662192</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C42" t="n">
-        <v>791.6695746850922</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D42" t="n">
-        <v>642.735165023841</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E42" t="n">
-        <v>483.4977100183855</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F42" t="n">
-        <v>336.9631520452705</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044924</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H42" t="n">
-        <v>98.605776549297</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J42" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K42" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4113519543018</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
-        <v>1483.956701421406</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N42" t="n">
-        <v>2136.130580724116</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O42" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P42" t="n">
         <v>2404.332520920175</v>
@@ -7514,10 +7514,10 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T42" t="n">
         <v>2267.477992405552</v>
@@ -7526,7 +7526,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V42" t="n">
-        <v>1804.187096684976</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W42" t="n">
         <v>1549.949739956774</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>356.2057630587627</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C43" t="n">
-        <v>187.2695801308558</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D43" t="n">
-        <v>187.2695801308558</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E43" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F43" t="n">
-        <v>187.2695801308558</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7599,22 +7599,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U43" t="n">
-        <v>537.8542278890025</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V43" t="n">
-        <v>537.8542278890025</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W43" t="n">
-        <v>537.8542278890025</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X43" t="n">
-        <v>537.8542278890025</v>
+        <v>200.614013122006</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.8542278890025</v>
+        <v>200.614013122006</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1660.267515417863</v>
+        <v>1328.626009176457</v>
       </c>
       <c r="C44" t="n">
-        <v>1291.304998477451</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D44" t="n">
-        <v>943.3829309997691</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E44" t="n">
-        <v>943.3829309997691</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F44" t="n">
-        <v>532.3970262101615</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9926295475604</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>456.4907949980433</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>819.0447427728841</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.125303783477</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N44" t="n">
-        <v>1700.859731512776</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O44" t="n">
-        <v>2109.363122473163</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P44" t="n">
-        <v>2423.510314738926</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q44" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2381.469734737245</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V44" t="n">
-        <v>2050.406847393675</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W44" t="n">
-        <v>2050.406847393675</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X44" t="n">
-        <v>2050.406847393675</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y44" t="n">
-        <v>1660.267515417863</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D45" t="n">
-        <v>607.917815326547</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6803603210915</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H45" t="n">
-        <v>72.01859803531259</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J45" t="n">
-        <v>118.0354471182384</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K45" t="n">
-        <v>439.5589053153727</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L45" t="n">
-        <v>741.1204685177297</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.385457207119</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N45" t="n">
-        <v>1507.885370329412</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O45" t="n">
-        <v>1847.470728457841</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P45" t="n">
-        <v>2415.962991440182</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
-        <v>2535.310729830173</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C46" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D46" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E46" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J46" t="n">
-        <v>80.04222654763831</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K46" t="n">
-        <v>254.8092295930466</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>533.9772579209388</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>838.7099246413406</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1141.631346079985</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1405.412012516899</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.601259943067</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1664.151534413982</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S46" t="n">
-        <v>1664.151534413982</v>
+        <v>743.4275316657304</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.350036461898</v>
+        <v>743.4275316657304</v>
       </c>
       <c r="U46" t="n">
-        <v>1227.233172654248</v>
+        <v>454.2753552434101</v>
       </c>
       <c r="V46" t="n">
-        <v>972.5486844483607</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="W46" t="n">
-        <v>683.1315144114001</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="X46" t="n">
-        <v>455.1419635133827</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="Y46" t="n">
-        <v>234.3493843698526</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.1427569033361</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>326.1643666240946</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>326.3116737658505</v>
       </c>
       <c r="O11" t="n">
-        <v>213.8698272853573</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>56.94306717106298</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O18" t="n">
-        <v>193.9470943467853</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,13 +9406,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.8008973295434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9643,13 +9643,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>250.7308605730627</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>283.1760056204238</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>194.184117423824</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>366.568374812572</v>
       </c>
       <c r="N27" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>37.16554713105188</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O29" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>378.0407240669651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>347.1032070028238</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O32" t="n">
-        <v>213.8698272853578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>89.54312379457448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N33" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>86.76642653324072</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>306.1979795936944</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>214.4812518545909</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>48.10560617263553</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O41" t="n">
-        <v>182.017508342976</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>207.4678568043328</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>45.38463668251691</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>133.0318378887811</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>83.89150510534945</v>
+        <v>78.70226791530378</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>413.4932414420988</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>283.5498210430779</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>29.15330652385904</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>90.83571695072732</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>397.7033225239831</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="9">
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.747939141445</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>275.3034022478284</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>217.4415188603998</v>
+        <v>58.84053422166141</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>31.71323373547038</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.3749316258422</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84.12971568086346</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -23554,7 +23554,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>232.8168665435017</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23709,19 +23709,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>60.69561706280189</v>
+        <v>87.96077371353687</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>45.82632724023722</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>156.7165540923827</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.88530372271383</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,22 +23940,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>168.1592618149514</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>351.6042740274842</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>283.1201627106467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>7.218779776506778</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>92.26423300453015</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>25.97097529433285</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24262,7 +24262,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>190.6430633874556</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.01989658051914</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>252.0628034980664</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>412.9169039459368</v>
@@ -24496,22 +24496,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>191.7822978255885</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>53.94665339840719</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,22 +24651,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>177.6398473074008</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>263.7247482946421</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>173.3192942179763</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>35.05938011359413</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J31" t="n">
         <v>17.69584188176898</v>
@@ -24888,7 +24888,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>173.5578937488464</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>173.4261531159169</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>151.7611853882057</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>242.9069295553456</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>102.0975365687951</v>
       </c>
       <c r="U34" t="n">
-        <v>169.358415375355</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>331.0055982478834</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>61.94850802786902</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>11.02156377907707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>116.9740249497286</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25371,16 +25371,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>206.7500833210958</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>148.2570883956326</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.08428533260303</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>134.6062718432182</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>100.3716528583959</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>284.5100835260494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>33.69780256923994</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25839,19 +25839,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>207.1295797093711</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>303.8303727904417</v>
       </c>
       <c r="D44" t="n">
-        <v>10.24019481777776</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>300.4078786665683</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0934231223255</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3971597168112</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2798525983037</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0137000398793</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9922265400504</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3549099614712</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1963253168159</v>
+        <v>28.42307492801501</v>
       </c>
       <c r="T46" t="n">
-        <v>74.31092848051026</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378616</v>
+        <v>490531.2536378617</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378618</v>
+        <v>493620.5445765711</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378616</v>
+        <v>509635.5853000613</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.1793477288</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826551.4445986439</v>
+        <v>821688.179347729</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>252134.9940623532</v>
@@ -26334,7 +26334,7 @@
         <v>252134.9940623532</v>
       </c>
       <c r="I2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="J2" t="n">
         <v>252134.9940623531</v>
@@ -26346,7 +26346,7 @@
         <v>252134.9940623532</v>
       </c>
       <c r="M2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="N2" t="n">
         <v>252134.9940623532</v>
@@ -26355,7 +26355,7 @@
         <v>252134.9940623532</v>
       </c>
       <c r="P2" t="n">
-        <v>262911.8505314358</v>
+        <v>252134.9940623532</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>576404.8681646987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664028</v>
+        <v>98565.03158297989</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>236559.9980917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>50404.27455704983</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>50480.80391628887</v>
       </c>
       <c r="E4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
         <v>36133.96051511372</v>
@@ -26444,13 +26444,13 @@
         <v>36133.96051511372</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511372</v>
@@ -26459,7 +26459,7 @@
         <v>36133.96051511372</v>
       </c>
       <c r="P4" t="n">
-        <v>7416.310118926249</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26496,22 +26496,22 @@
         <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="P5" t="n">
-        <v>60738.66581059821</v>
+        <v>52990.47783747558</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38199.13257121146</v>
+        <v>-50417.14319125189</v>
       </c>
       <c r="C6" t="n">
-        <v>42570.29896033626</v>
+        <v>26588.92740361415</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.2989603363</v>
+        <v>12499.89299923321</v>
       </c>
       <c r="E6" t="n">
-        <v>-438520.0488143566</v>
+        <v>-419088.88646258</v>
       </c>
       <c r="F6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="G6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="H6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="I6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="J6" t="n">
-        <v>99950.61311065753</v>
+        <v>94256.0391030124</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.5557097638</v>
+        <v>156402.7258996615</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.5557097638</v>
+        <v>152588.4185832714</v>
       </c>
       <c r="M6" t="n">
-        <v>58906.28114336096</v>
+        <v>58750.95011913882</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="P6" t="n">
-        <v>-41803.12348978865</v>
+        <v>157315.9817021187</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>948.897566995066</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26816,22 +26816,22 @@
         <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>570.4627176512757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>355.4214666570009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675015</v>
+        <v>395.519460293494</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33292,7 +33292,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U30" t="n">
         <v>0.08398246702897151</v>
@@ -33766,7 +33766,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U36" t="n">
         <v>0.08398246702897151</v>
@@ -34003,7 +34003,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U39" t="n">
         <v>0.08398246702897151</v>
@@ -34240,7 +34240,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T42" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U42" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>39.06692344919885</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8215473793864</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>680.6599602928527</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>642.727899260462</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>86.92664646391988</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.041024955423349</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27213114067234</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>443.1620193782146</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>530.8365738230228</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>389.746247847464</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>126.7225845130392</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.91114336060473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.226762868570427</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45824838720785</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>198.801818134376</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3978821415952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.2835326162549</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.8202727201564</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.311177975207882</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>35.67733668377929</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>207.6969052949493</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
         <v>558.3972305517163</v>
@@ -35421,10 +35421,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>522.6088585052266</v>
       </c>
       <c r="O11" t="n">
-        <v>385.7577316459225</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588832</v>
@@ -35728,13 +35728,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>125.2337941037468</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N15" t="n">
         <v>200.663375406732</v>
@@ -35746,7 +35746,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>658.7614942451606</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O18" t="n">
-        <v>355.0706424970485</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M20" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>245.0916242622273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36220,7 +36220,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M23" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N23" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O23" t="n">
         <v>552.6880856233105</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>421.7917611918318</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N24" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36457,7 +36457,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K26" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3972305517163</v>
+        <v>334.9201334250898</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O26" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P26" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q26" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>547.8788155747991</v>
       </c>
       <c r="N27" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>146.953049683879</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K29" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M29" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N29" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O29" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M30" t="n">
-        <v>559.3511648291922</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269929</v>
+        <v>508.2267551530871</v>
       </c>
       <c r="P30" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O32" t="n">
-        <v>385.7577316459229</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
         <v>433.6515619588832</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
-        <v>228.1588793659825</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N33" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
@@ -37168,7 +37168,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
         <v>196.2971847393761</v>
@@ -37323,10 +37323,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.1039215045489</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
         <v>332.7559639452625</v>
@@ -37393,19 +37393,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N36" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O36" t="n">
-        <v>467.3215277439576</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K38" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M38" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
-        <v>410.7784365939671</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O38" t="n">
         <v>552.6880856233105</v>
@@ -37563,7 +37563,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>229.4160469348626</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N39" t="n">
         <v>200.663375406732</v>
@@ -37788,13 +37788,13 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O41" t="n">
-        <v>353.9054127035411</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
         <v>433.6515619588832</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>346.0836123757409</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
         <v>233.0438950105733</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.7188989979268</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1496620711948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2161088634757</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>439.4753141521137</v>
+        <v>233.9699021627267</v>
       </c>
       <c r="N44" t="n">
-        <v>451.2468966962618</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6296878387752</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>317.320396228044</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.6350624384688</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
-        <v>24.03732366427519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>65.99447230164199</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>324.7711698960952</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>304.6076395983404</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0151400902926</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N45" t="n">
-        <v>399.4948617396896</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>343.0155132610399</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>574.2346090730709</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.5532711010011</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
-        <v>26.5647503603961</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.61748182628833</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>281.9879074019113</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.12148936456056</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431889.0009836451</v>
+        <v>490742.4063030187</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3840854.495975447</v>
+        <v>3842442.348868402</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10457196.99249322</v>
+        <v>10498891.9951863</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8566164.688334364</v>
+        <v>8545531.187744074</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58.64124924790686</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>29.98922285235755</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>55.77372499889864</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>52.80533857672633</v>
       </c>
       <c r="G6" t="n">
-        <v>108.1823083682227</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>9.17272321772834</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.89714131395593</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>150.252752286242</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.21959608876256</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>323.0898358506004</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>218.521756544069</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664363</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>116.902239282742</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>46.02097823809488</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>153.4210721125519</v>
+        <v>56.91917301839165</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H15" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>37.35150049082143</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7488816755003</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>336.9075144232434</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>71.96723207617774</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>83.97838150887655</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>143.1465625983146</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>30.32609604477764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>103.4213611888998</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>125.296670980563</v>
       </c>
       <c r="T22" t="n">
-        <v>131.1086717162285</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>328.7120663263501</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>285.7846268350551</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.7792016429401</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>34.46019483852456</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>295.2943153190058</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>88.62471037743204</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.73305741335791</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>167.6339061443366</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.4145474455043</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>225.7109757765947</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>5.239037279935912</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.15850023617794</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>213.5117063828019</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>67.11947822226414</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>121.2753681519636</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>227.9017882635736</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>75.87044749382798</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>95.50236968800461</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.94675160484181</v>
+        <v>126.3204203475646</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3562,10 +3562,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>229.034680364578</v>
       </c>
       <c r="W38" t="n">
-        <v>200.9838803217804</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.75961005690043</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>168.5661160802663</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>282.3621888050847</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>51.58250951991601</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.7857997499445</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>18.5800756796661</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>61.44251898056581</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>412.9169039459368</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>340.8478689910032</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>176.9428069721036</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4375,7 +4375,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>225.0492861822236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>78.51472820910854</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>630.4088871269773</v>
       </c>
       <c r="V3" t="n">
-        <v>627.7355178317791</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W3" t="n">
-        <v>384.2867411876791</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X3" t="n">
-        <v>384.2867411876791</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>384.2867411876791</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7389791981386</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7389791981386</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>333.7389791981386</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>333.7389791981386</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>86.70591620708569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>86.70591620708569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>30.36882024860222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>827.8051051802445</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>827.8051051802445</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>827.8051051802445</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>827.8051051802445</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>580.7720421891916</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>580.7720421891916</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7389791981386</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434.6120905252627</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="C6" t="n">
-        <v>434.6120905252627</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="D6" t="n">
-        <v>434.6120905252627</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="E6" t="n">
-        <v>275.3746355198072</v>
+        <v>211.3506943626743</v>
       </c>
       <c r="F6" t="n">
-        <v>128.8400775466921</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>146.1858617037014</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>388.3029667412324</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4200717787633</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>872.5371768162943</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>804.9818487541377</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>602.8274275453307</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>602.8274275453307</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>602.8274275453307</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>602.8274275453307</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>602.8274275453307</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y6" t="n">
-        <v>602.8274275453307</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>296.2257840993605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>296.2257840993605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>296.2257840993605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>296.2257840993605</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>828.0278728906062</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>828.0278728906062</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>828.0278728906062</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>828.0278728906062</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>828.0278728906062</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>562.1268284949833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.8183720817682</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>355.8183720817682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>206.883962420517</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>167.5939206892484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>394.933760794076</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>817.8160275749237</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>563.5786708467222</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X9" t="n">
-        <v>563.5786708467222</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y9" t="n">
-        <v>355.8183720817682</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.1760021284691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>171.1760021284691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1760021284691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>171.1760021284691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.1760021284691</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1835.491524649934</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C11" t="n">
-        <v>1466.529007709522</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D11" t="n">
-        <v>1108.263309102772</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E11" t="n">
-        <v>781.9099395567109</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F11" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G11" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H11" t="n">
         <v>52.70091953961285</v>
@@ -5041,16 +5041,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M11" t="n">
-        <v>896.0109951791954</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N11" t="n">
         <v>1413.39376509937</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U11" t="n">
-        <v>2166.554411993505</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="V11" t="n">
-        <v>1835.491524649934</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="W11" t="n">
-        <v>1835.491524649934</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="X11" t="n">
-        <v>1835.491524649934</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="Y11" t="n">
-        <v>1835.491524649934</v>
+        <v>1653.162698755159</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>199.521754404492</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
         <v>52.70091953961285</v>
@@ -5126,16 +5126,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L12" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M12" t="n">
-        <v>1232.27200203395</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.928743686615</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.364752439338</v>
+        <v>2019.125398128049</v>
       </c>
       <c r="P12" t="n">
         <v>2404.332520920175</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>170.7839895221805</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C13" t="n">
-        <v>170.7839895221805</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F13" t="n">
         <v>52.70091953961285</v>
@@ -5226,25 +5226,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>619.566119563728</v>
+        <v>1006.149764394821</v>
       </c>
       <c r="U13" t="n">
-        <v>619.566119563728</v>
+        <v>716.9975879725012</v>
       </c>
       <c r="V13" t="n">
-        <v>619.566119563728</v>
+        <v>716.9975879725012</v>
       </c>
       <c r="W13" t="n">
-        <v>619.566119563728</v>
+        <v>427.5804179355405</v>
       </c>
       <c r="X13" t="n">
-        <v>391.5765686657106</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.7839895221805</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
     <row r="14">
@@ -5305,22 +5305,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.830939477471</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V14" t="n">
-        <v>2147.7680521339</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W14" t="n">
-        <v>1794.999396863786</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X14" t="n">
-        <v>1421.533638602706</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y14" t="n">
         <v>1266.562858691037</v>
@@ -5348,28 +5348,28 @@
         <v>336.96315204527</v>
       </c>
       <c r="G15" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K15" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L15" t="n">
-        <v>1005.150115568437</v>
+        <v>528.1332110007638</v>
       </c>
       <c r="M15" t="n">
-        <v>1232.27200203395</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O15" t="n">
         <v>1980.364752439338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.6371024675198</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961285</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961285</v>
+        <v>405.926500416707</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G16" t="n">
         <v>52.70091953961285</v>
@@ -5463,25 +5463,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T16" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U16" t="n">
-        <v>1052.635600998958</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="V16" t="n">
-        <v>1052.635600998958</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="W16" t="n">
-        <v>763.218430961997</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="X16" t="n">
-        <v>624.0781464412896</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="Y16" t="n">
-        <v>403.2855672977595</v>
+        <v>556.0431398290427</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1358.733275299433</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="C17" t="n">
-        <v>1358.733275299433</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D17" t="n">
-        <v>1000.467576692682</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E17" t="n">
-        <v>1000.467576692682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F17" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H17" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L17" t="n">
-        <v>1032.36013938198</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M17" t="n">
-        <v>1219.059552207387</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
@@ -5545,22 +5545,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U17" t="n">
-        <v>2420.246115248354</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V17" t="n">
-        <v>2089.183227904783</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W17" t="n">
-        <v>2089.183227904783</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X17" t="n">
-        <v>2089.183227904783</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="Y17" t="n">
-        <v>1699.043895928971</v>
+        <v>1697.522731112109</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D18" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183844</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452695</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044913</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L18" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M18" t="n">
-        <v>1184.647451923041</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N18" t="n">
         <v>1430.928743686615</v>
@@ -5612,10 +5612,10 @@
         <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q18" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R18" t="n">
         <v>2613.934077382829</v>
@@ -5627,19 +5627,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V18" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>350.7306525343417</v>
+        <v>687.2505343823825</v>
       </c>
       <c r="C19" t="n">
-        <v>350.7306525343417</v>
+        <v>518.3143514544756</v>
       </c>
       <c r="D19" t="n">
-        <v>200.614013122006</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G19" t="n">
         <v>52.70091953961285</v>
@@ -5700,25 +5700,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V19" t="n">
-        <v>760.3686682625988</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W19" t="n">
-        <v>760.3686682625988</v>
+        <v>908.0431135259126</v>
       </c>
       <c r="X19" t="n">
-        <v>532.3791173645815</v>
+        <v>908.0431135259126</v>
       </c>
       <c r="Y19" t="n">
-        <v>532.3791173645815</v>
+        <v>687.2505343823825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1349.323112167423</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C20" t="n">
-        <v>1349.323112167423</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D20" t="n">
-        <v>1349.323112167423</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E20" t="n">
-        <v>1318.690691920173</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F20" t="n">
-        <v>907.7047871305651</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G20" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
@@ -5785,19 +5785,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.830939477471</v>
+        <v>2374.364918074541</v>
       </c>
       <c r="V20" t="n">
-        <v>2478.830939477471</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="W20" t="n">
-        <v>2126.062284207356</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="X20" t="n">
-        <v>2126.062284207356</v>
+        <v>2043.302030730971</v>
       </c>
       <c r="Y20" t="n">
-        <v>1735.922952231545</v>
+        <v>1653.162698755159</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K21" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>1005.150115568437</v>
+        <v>599.2575280293014</v>
       </c>
       <c r="M21" t="n">
-        <v>1184.647451923042</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N21" t="n">
         <v>1430.928743686615</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>202.8175589519486</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C22" t="n">
-        <v>202.8175589519486</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
         <v>52.70091953961285</v>
@@ -5937,25 +5937,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>845.195316251363</v>
+        <v>926.0733070791971</v>
       </c>
       <c r="T22" t="n">
-        <v>712.7623145177988</v>
+        <v>926.0733070791971</v>
       </c>
       <c r="U22" t="n">
-        <v>423.6101380954786</v>
+        <v>636.9211306568769</v>
       </c>
       <c r="V22" t="n">
-        <v>423.6101380954786</v>
+        <v>636.9211306568769</v>
       </c>
       <c r="W22" t="n">
-        <v>423.6101380954786</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="X22" t="n">
-        <v>423.6101380954786</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.8175589519486</v>
+        <v>347.5039606199163</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1187.609344130066</v>
+        <v>1096.123029315698</v>
       </c>
       <c r="C23" t="n">
-        <v>1187.609344130066</v>
+        <v>727.1605123752865</v>
       </c>
       <c r="D23" t="n">
-        <v>855.5769539014296</v>
+        <v>727.1605123752865</v>
       </c>
       <c r="E23" t="n">
-        <v>469.7887013031854</v>
+        <v>341.3722597770423</v>
       </c>
       <c r="F23" t="n">
-        <v>469.7887013031854</v>
+        <v>341.3722597770423</v>
       </c>
       <c r="G23" t="n">
         <v>52.70091953961285</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V23" t="n">
-        <v>2303.983089637072</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W23" t="n">
-        <v>1951.214434366958</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X23" t="n">
-        <v>1577.748676105878</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="Y23" t="n">
-        <v>1187.609344130066</v>
+        <v>1482.72286937982</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D24" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K24" t="n">
-        <v>500.7885757023184</v>
+        <v>316.2580578546451</v>
       </c>
       <c r="L24" t="n">
-        <v>1005.150115568437</v>
+        <v>453.487655870339</v>
       </c>
       <c r="M24" t="n">
-        <v>1184.647451923042</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N24" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,7 +6101,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
@@ -6113,7 +6113,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>666.5567829601589</v>
+        <v>157.5283959466231</v>
       </c>
       <c r="C25" t="n">
-        <v>497.620600032252</v>
+        <v>157.5283959466231</v>
       </c>
       <c r="D25" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F25" t="n">
         <v>52.70091953961285</v>
@@ -6180,19 +6180,19 @@
         <v>922.1576397183603</v>
       </c>
       <c r="U25" t="n">
-        <v>922.1576397183603</v>
+        <v>633.00546329604</v>
       </c>
       <c r="V25" t="n">
-        <v>922.1576397183603</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="W25" t="n">
-        <v>887.349362103689</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="X25" t="n">
-        <v>887.349362103689</v>
+        <v>378.3209750901532</v>
       </c>
       <c r="Y25" t="n">
-        <v>666.5567829601589</v>
+        <v>157.5283959466231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1576.703292474627</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="C26" t="n">
-        <v>1207.740775534215</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D26" t="n">
-        <v>849.4750769274647</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E26" t="n">
-        <v>463.6868243292204</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F26" t="n">
-        <v>52.70091953961285</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G26" t="n">
         <v>52.70091953961285</v>
@@ -6232,13 +6232,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>976.3788636642336</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M26" t="n">
-        <v>1163.078276489641</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N26" t="n">
-        <v>1790.385944549488</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O26" t="n">
         <v>1960.554969866447</v>
@@ -6259,19 +6259,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V26" t="n">
-        <v>2635.045976980643</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W26" t="n">
-        <v>2336.768890799829</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X26" t="n">
-        <v>1963.303132538749</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="Y26" t="n">
-        <v>1963.303132538749</v>
+        <v>1608.002821639955</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L27" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M27" t="n">
-        <v>1547.550142987488</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O27" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P27" t="n">
         <v>2404.332520920174</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.70091953961285</v>
+        <v>368.5270499654301</v>
       </c>
       <c r="C28" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D28" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F28" t="n">
         <v>52.70091953961285</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>1006.440593510717</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U28" t="n">
-        <v>1006.440593510717</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V28" t="n">
-        <v>751.7561053048305</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W28" t="n">
-        <v>462.3389352678699</v>
+        <v>368.5270499654301</v>
       </c>
       <c r="X28" t="n">
-        <v>234.3493843698525</v>
+        <v>368.5270499654301</v>
       </c>
       <c r="Y28" t="n">
-        <v>234.3493843698525</v>
+        <v>368.5270499654301</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1114.977985972098</v>
+        <v>880.774606092793</v>
       </c>
       <c r="C29" t="n">
-        <v>1114.977985972098</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D29" t="n">
-        <v>756.7122873653476</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E29" t="n">
-        <v>370.9240347671034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F29" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G29" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H29" t="n">
         <v>52.70091953961285</v>
@@ -6469,13 +6469,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L29" t="n">
-        <v>784.1365874146478</v>
+        <v>964.3339206741936</v>
       </c>
       <c r="M29" t="n">
-        <v>970.8360002400555</v>
+        <v>1596.051731657505</v>
       </c>
       <c r="N29" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O29" t="n">
         <v>1960.554969866447</v>
@@ -6493,22 +6493,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T29" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U29" t="n">
-        <v>2010.339374490333</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V29" t="n">
-        <v>1679.276487146762</v>
+        <v>1997.148351599799</v>
       </c>
       <c r="W29" t="n">
-        <v>1326.507831876648</v>
+        <v>1644.379696329685</v>
       </c>
       <c r="X29" t="n">
-        <v>1326.507831876648</v>
+        <v>1270.913938068605</v>
       </c>
       <c r="Y29" t="n">
-        <v>1326.507831876648</v>
+        <v>880.774606092793</v>
       </c>
     </row>
     <row r="30">
@@ -6548,13 +6548,13 @@
         <v>500.7885757023182</v>
       </c>
       <c r="L30" t="n">
-        <v>638.0181737180121</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M30" t="n">
-        <v>1278.563523185117</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N30" t="n">
-        <v>1477.220264837782</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O30" t="n">
         <v>1980.364752439338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>371.7537418798555</v>
+        <v>537.1338949700468</v>
       </c>
       <c r="C31" t="n">
-        <v>202.8175589519486</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G31" t="n">
         <v>52.70091953961285</v>
@@ -6651,22 +6651,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>827.0064043113226</v>
+        <v>1047.343644150538</v>
       </c>
       <c r="V31" t="n">
-        <v>827.0064043113226</v>
+        <v>1047.343644150538</v>
       </c>
       <c r="W31" t="n">
-        <v>827.0064043113226</v>
+        <v>757.9264741135769</v>
       </c>
       <c r="X31" t="n">
-        <v>599.0168534133053</v>
+        <v>757.9264741135769</v>
       </c>
       <c r="Y31" t="n">
-        <v>553.4022067100952</v>
+        <v>537.1338949700468</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1482.231248976696</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="C32" t="n">
-        <v>1266.562858691037</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="D32" t="n">
-        <v>1266.562858691037</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E32" t="n">
-        <v>880.774606092793</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F32" t="n">
-        <v>469.7887013031854</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G32" t="n">
         <v>52.70091953961285</v>
@@ -6706,10 +6706,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M32" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N32" t="n">
         <v>1413.39376509937</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U32" t="n">
-        <v>2225.139236222622</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V32" t="n">
-        <v>2225.139236222622</v>
+        <v>2352.448662498592</v>
       </c>
       <c r="W32" t="n">
-        <v>1872.370580952507</v>
+        <v>1999.680007228478</v>
       </c>
       <c r="X32" t="n">
-        <v>1872.370580952507</v>
+        <v>1626.214248967398</v>
       </c>
       <c r="Y32" t="n">
-        <v>1482.231248976696</v>
+        <v>1236.074916991586</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>371.4244039565652</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C34" t="n">
-        <v>371.4244039565652</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D34" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E34" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F34" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G34" t="n">
         <v>52.70091953961285</v>
@@ -6882,28 +6882,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>592.2169831000954</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U34" t="n">
-        <v>592.2169831000954</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V34" t="n">
-        <v>592.2169831000954</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W34" t="n">
-        <v>592.2169831000954</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X34" t="n">
-        <v>592.2169831000954</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y34" t="n">
-        <v>371.4244039565652</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.0420736155681</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="C35" t="n">
-        <v>953.0420736155681</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="D35" t="n">
-        <v>953.0420736155681</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E35" t="n">
-        <v>567.2538210173238</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F35" t="n">
-        <v>490.6170053669925</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G35" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H35" t="n">
         <v>172.393890139502</v>
@@ -6943,10 +6943,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M35" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N35" t="n">
         <v>1413.39376509937</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T35" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V35" t="n">
-        <v>1679.276487146762</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W35" t="n">
-        <v>1326.507831876648</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X35" t="n">
-        <v>953.0420736155681</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.0420736155681</v>
+        <v>1386.255829290926</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M36" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923041</v>
       </c>
       <c r="N36" t="n">
         <v>1430.928743686615</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>422.2050061271705</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="C37" t="n">
-        <v>253.2688231992636</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="D37" t="n">
-        <v>103.1521837869278</v>
+        <v>180.297303729072</v>
       </c>
       <c r="E37" t="n">
-        <v>103.1521837869278</v>
+        <v>180.297303729072</v>
       </c>
       <c r="F37" t="n">
-        <v>103.1521837869278</v>
+        <v>180.297303729072</v>
       </c>
       <c r="G37" t="n">
         <v>52.70091953961285</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T37" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U37" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V37" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="W37" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="X37" t="n">
-        <v>824.6460501009403</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="Y37" t="n">
-        <v>603.8534709574102</v>
+        <v>330.4139431414077</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1635.525375631449</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="C38" t="n">
-        <v>1266.562858691037</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D38" t="n">
         <v>1266.562858691037</v>
@@ -7177,13 +7177,13 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L38" t="n">
-        <v>784.1365874146478</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M38" t="n">
-        <v>970.8360002400555</v>
+        <v>1094.950439952506</v>
       </c>
       <c r="N38" t="n">
         <v>1413.39376509937</v>
@@ -7210,16 +7210,16 @@
         <v>2225.139236222622</v>
       </c>
       <c r="V38" t="n">
-        <v>2225.139236222622</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="W38" t="n">
-        <v>2022.125215695571</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="X38" t="n">
-        <v>2022.125215695571</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="Y38" t="n">
-        <v>2022.125215695571</v>
+        <v>1993.791074238199</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
         <v>171.3601713965085</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>350.7306525343417</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="C40" t="n">
-        <v>350.7306525343417</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D40" t="n">
-        <v>200.614013122006</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G40" t="n">
         <v>52.70091953961285</v>
@@ -7359,25 +7359,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>981.161247406129</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T40" t="n">
-        <v>981.161247406129</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U40" t="n">
-        <v>981.161247406129</v>
+        <v>449.2973154422468</v>
       </c>
       <c r="V40" t="n">
-        <v>981.161247406129</v>
+        <v>449.2973154422468</v>
       </c>
       <c r="W40" t="n">
-        <v>981.161247406129</v>
+        <v>449.2973154422468</v>
       </c>
       <c r="X40" t="n">
-        <v>753.1716965081116</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.3791173645815</v>
+        <v>221.3077645442295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1197.016916850348</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="C41" t="n">
-        <v>828.0543999099359</v>
+        <v>1052.571121662294</v>
       </c>
       <c r="D41" t="n">
-        <v>469.7887013031854</v>
+        <v>1052.571121662294</v>
       </c>
       <c r="E41" t="n">
-        <v>469.7887013031854</v>
+        <v>1052.571121662294</v>
       </c>
       <c r="F41" t="n">
-        <v>469.7887013031854</v>
+        <v>641.5852168726867</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961285</v>
+        <v>224.4974351091142</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I41" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J41" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L41" t="n">
-        <v>784.1365874146478</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M41" t="n">
-        <v>970.8360002400555</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7444,19 +7444,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2225.139236222622</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V41" t="n">
-        <v>2225.139236222622</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W41" t="n">
-        <v>1872.370580952507</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X41" t="n">
-        <v>1872.370580952507</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y41" t="n">
-        <v>1482.231248976696</v>
+        <v>1421.533638602706</v>
       </c>
     </row>
     <row r="42">
@@ -7472,37 +7472,37 @@
         <v>791.6695746850918</v>
       </c>
       <c r="D42" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E42" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F42" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I42" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J42" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K42" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L42" t="n">
-        <v>886.4908637115414</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M42" t="n">
-        <v>1232.27200203395</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686615</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O42" t="n">
         <v>1980.364752439338</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E43" t="n">
         <v>52.70091953961285</v>
@@ -7596,25 +7596,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T43" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U43" t="n">
-        <v>763.4834245766374</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="V43" t="n">
-        <v>508.7989363707505</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W43" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1328.626009176457</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C44" t="n">
-        <v>1266.562858691037</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D44" t="n">
-        <v>1266.562858691037</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E44" t="n">
-        <v>880.774606092793</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F44" t="n">
         <v>469.7887013031854</v>
@@ -7654,19 +7654,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M44" t="n">
-        <v>1429.251392960693</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N44" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O44" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7681,19 +7681,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V44" t="n">
-        <v>2478.830939477471</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W44" t="n">
-        <v>2478.830939477471</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X44" t="n">
-        <v>2105.365181216391</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="Y44" t="n">
-        <v>1715.225849240579</v>
+        <v>1197.016916850348</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J45" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M45" t="n">
-        <v>1232.27200203395</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N45" t="n">
-        <v>1430.928743686615</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P45" t="n">
         <v>2404.332520920175</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>199.5908670375232</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C46" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D46" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E46" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F46" t="n">
         <v>52.70091953961285</v>
@@ -7830,28 +7830,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>743.4275316657304</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>743.4275316657304</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U46" t="n">
-        <v>454.2753552434101</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V46" t="n">
-        <v>199.5908670375232</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W46" t="n">
-        <v>199.5908670375232</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X46" t="n">
-        <v>199.5908670375232</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.5908670375232</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.1427569033361</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577181</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>326.1643666240946</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>326.3116737658505</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>279.3106012776028</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>273.3281553354546</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.16626119468566</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>48.10560617263502</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.70566279614616</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>78.07077454018156</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9880,16 +9880,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>194.184117423824</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>213.8698272853573</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>366.568374812572</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>182.0175083429755</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>347.1032070028238</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>250.7308605730627</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>48.10560617263482</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7308605730627</v>
+        <v>125.3627396513949</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>214.4812518545906</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,22 +11138,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11302,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>45.38463668251691</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>167.9634363311155</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>294.725630339302</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
@@ -22555,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,13 +22634,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>78.70226791530378</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>195.9521592286173</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22713,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>162.313313380569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>283.5498210430779</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W5" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22865,28 +22865,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.26387381665755</v>
       </c>
       <c r="G6" t="n">
-        <v>29.15330652385904</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>90.83571695072732</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>397.7033225239831</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.747939141445</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>101.4422308746776</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>275.3034022478284</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>58.84053422166141</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.63302967823162</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>31.71323373547038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23466,25 +23466,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>177.3519264826638</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>232.8168665435017</v>
+        <v>329.318765637662</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>109.0824621557477</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23703,25 +23703,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.96077371353687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.82632724023722</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>293.3056596948298</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23940,7 +23940,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
@@ -23949,16 +23949,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>168.1592618149514</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>143.3764357382764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>351.6042740274842</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>147.7334250334009</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24177,10 +24177,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.06921091955567</v>
       </c>
       <c r="T22" t="n">
-        <v>92.26423300453015</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>25.97097529433285</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>127.1322771108817</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
@@ -24259,10 +24259,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>44.83627137527225</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
@@ -24420,13 +24420,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>252.0628034980664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24499,16 +24499,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>53.94665339840719</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>281.106390301037</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
@@ -24654,19 +24654,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>177.6398473074008</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>118.8890921922544</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.3192942179763</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>102.0412826935402</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24891,22 +24891,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>281.0216173781611</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.4261531159169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>151.7611853882057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>260.6327802478708</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>102.0975365687951</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>58.3588663945234</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>331.0055982478834</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>274.2287309904644</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>116.9740249497286</v>
+        <v>40.60035620700587</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25362,13 +25362,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>98.71757810555695</v>
       </c>
       <c r="W38" t="n">
-        <v>148.2570883956326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.7120966692326</v>
@@ -25599,13 +25599,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>134.6062718432182</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>117.6945385778307</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.3716528583959</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>263.4583745552995</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,7 +25836,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>223.3729047207587</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.35184357388346</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>207.1295797093711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>303.8303727904417</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>45.39006966505036</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>2.232782772392568</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>28.42307492801501</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
         <v>223.3729047207587</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378617</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493620.5445765711</v>
+        <v>490531.2536378617</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>509635.5853000613</v>
+        <v>490531.2536378618</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>252134.9940623532</v>
@@ -26328,28 +26328,28 @@
         <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="H2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="I2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="J2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="K2" t="n">
         <v>252134.9940623531</v>
       </c>
       <c r="L2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="M2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="N2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="O2" t="n">
         <v>252134.9940623532</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>576404.8681646987</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847362</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98565.03158297989</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="D4" t="n">
         <v>50385.00392753458</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50404.27455704983</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50480.80391628887</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
@@ -26432,7 +26432,7 @@
         <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26441,16 +26441,16 @@
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
+        <v>36133.96051511371</v>
+      </c>
+      <c r="K4" t="n">
         <v>36133.96051511372</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36133.96051511371</v>
       </c>
       <c r="L4" t="n">
         <v>36133.96051511371</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511372</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50417.14319125189</v>
+        <v>-39420.93363321549</v>
       </c>
       <c r="C6" t="n">
-        <v>26588.92740361415</v>
+        <v>41348.49789833224</v>
       </c>
       <c r="D6" t="n">
-        <v>12499.89299923321</v>
+        <v>41348.49789833223</v>
       </c>
       <c r="E6" t="n">
-        <v>-419088.88646258</v>
+        <v>-439089.5062151211</v>
       </c>
       <c r="F6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="G6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="H6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="I6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="J6" t="n">
-        <v>94256.0391030124</v>
+        <v>99381.15570989317</v>
       </c>
       <c r="K6" t="n">
-        <v>156402.7258996615</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="L6" t="n">
-        <v>152588.4185832714</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="M6" t="n">
-        <v>58750.95011913882</v>
+        <v>58336.82374259653</v>
       </c>
       <c r="N6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="O6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="P6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.4627176512757</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.519460293494</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.519460293494</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.519460293494</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>24.43391804055158</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J14" t="n">
         <v>202.4946418937401</v>
@@ -32007,7 +32007,7 @@
         <v>376.5024309712531</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N14" t="n">
         <v>425.710248335967</v>
@@ -32080,7 +32080,7 @@
         <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L15" t="n">
         <v>277.1701353512822</v>
@@ -32107,7 +32107,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U15" t="n">
         <v>0.08398246702897151</v>
@@ -32150,7 +32150,7 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I16" t="n">
         <v>32.18391704784131</v>
@@ -32162,7 +32162,7 @@
         <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M16" t="n">
         <v>167.7591540676927</v>
@@ -32177,7 +32177,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R16" t="n">
         <v>48.12020970937817</v>
@@ -34240,7 +34240,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T42" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U42" t="n">
         <v>0.08398246702897151</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>35.67733668377929</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6969052949493</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>522.6088585052266</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O11" t="n">
         <v>552.6880856233105</v>
@@ -35494,19 +35494,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>389.0981038304299</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35655,13 +35655,13 @@
         <v>391.4668765743286</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>188.5852654802097</v>
       </c>
       <c r="N14" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P14" t="n">
         <v>433.6515619588832</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>411.9439109068626</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
         <v>428.2502711927643</v>
@@ -35825,7 +35825,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393761</v>
+        <v>198.4634459340618</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
@@ -35974,7 +35974,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>248.768981579367</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>219.3214183675542</v>
       </c>
       <c r="M21" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36439,22 +36439,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452625</v>
+        <v>146.3615014728654</v>
       </c>
       <c r="L24" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105733</v>
@@ -36600,16 +36600,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>334.9201334250898</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M26" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
-        <v>171.8879043605652</v>
+        <v>385.7577316459225</v>
       </c>
       <c r="P26" t="n">
         <v>433.6515619588832</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>332.7559639452625</v>
@@ -36682,16 +36682,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>547.8788155747991</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105733</v>
@@ -36837,16 +36837,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>140.7360160012659</v>
+        <v>322.7535243442413</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P29" t="n">
         <v>433.6515619588832</v>
@@ -36916,16 +36916,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N30" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
-        <v>508.2267551530871</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
         <v>428.2502711927643</v>
@@ -37074,13 +37074,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M32" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
@@ -37311,13 +37311,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M35" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37393,10 +37393,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>229.4160469348619</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
-        <v>200.663375406732</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
@@ -37545,16 +37545,16 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
         <v>140.7360160012659</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>447.0280453124388</v>
+        <v>321.659924390771</v>
       </c>
       <c r="O38" t="n">
         <v>552.6880856233105</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>403.0665173348003</v>
       </c>
       <c r="N41" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
@@ -37800,7 +37800,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M42" t="n">
-        <v>349.2738770933425</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N42" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>515.8337000646585</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
@@ -38022,13 +38022,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M44" t="n">
-        <v>233.9699021627267</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233105</v>
@@ -38037,7 +38037,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
         <v>332.7559639452625</v>
@@ -38104,16 +38104,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>349.2738770933425</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>495.389005746034</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q45" t="n">
         <v>233.0438950105733</v>
